--- a/doors_detection_long_term/scripts/results/detr_ap_real_data_0.5.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_ap_real_data_0.5.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.300949978984485</t>
+          <t>0.2817240467704375</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.2630066645578751</t>
+          <t>0.2552776699655499</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.23234063380498013</t>
+          <t>0.21487021043472654</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.2841889684585846</t>
+          <t>0.27255054525163613</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.13494748831901776</t>
+          <t>0.12630957364437084</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.15787221651883307</t>
+          <t>0.14724074724074726</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.17812191341915237</t>
+          <t>0.17401254088872722</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.3005411119192831</t>
+          <t>0.2879189414630113</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.34504352297642266</t>
+          <t>0.3210170354896801</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.39486836053736796</t>
+          <t>0.38411567236532496</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.12178293478008617</t>
+          <t>0.11526656695321792</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.4127983931724056</t>
+          <t>0.38892492138104223</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.4317210794806519</t>
+          <t>0.41528805584801376</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.054851046698872793</t>
+          <t>0.05215472044339587</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.17501080846350164</t>
+          <t>0.16126150172927814</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.04306362338398951</t>
+          <t>0.033169887574921904</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.23452509916478032</t>
+          <t>0.22649489446924817</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.13977055432891056</t>
+          <t>0.13930550874433584</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.4214231822653945</t>
+          <t>0.41134093077607603</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.1347770984572091</t>
+          <t>0.12932100297553817</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.3537320276308919</t>
+          <t>0.333658519007765</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.037791375291375294</t>
+          <t>0.0358974358974359</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.20396891567115058</t>
+          <t>0.18254900222530343</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.03690518907858537</t>
+          <t>0.03223564884870032</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1966,12 +1966,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.2169757202433048</t>
+          <t>0.2061132457293852</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.04764821742537171</t>
+          <t>0.044002384092038375</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.1821163526594706</t>
+          <t>0.17975695622600008</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.031113164947570167</t>
+          <t>0.028169324367860023</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.1514183858197913</t>
+          <t>0.13992354377714536</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.056378523599990994</t>
+          <t>0.05434048012173013</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.2176203906045632</t>
+          <t>0.2153850191384225</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.10711737063090282</t>
+          <t>0.10345630825273519</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2406,12 +2406,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.1946645323982855</t>
+          <t>0.18751065134253903</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.5589526062590108</t>
+          <t>0.5480546114900483</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.4666138126118822</t>
+          <t>0.45871226462591197</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.5737987362792852</t>
+          <t>0.5587918738862501</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.4901944952787515</t>
+          <t>0.4754326316835843</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.56394389755558</t>
+          <t>0.5532493141934703</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.564670916839647</t>
+          <t>0.561116269042857</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.7164710388535078</t>
+          <t>0.6899566212100581</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.6043244271385878</t>
+          <t>0.5948639898424127</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.5135816012600569</t>
+          <t>0.501351895481964</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2956,12 +2956,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.4872946270999143</t>
+          <t>0.48282206943586725</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.5708267166818255</t>
+          <t>0.565402794329556</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.5287252770088197</t>
+          <t>0.5358540779134925</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.7398610466197822</t>
+          <t>0.7268758087848998</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.6585926804014548</t>
+          <t>0.6455979540283301</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.7953800703913295</t>
+          <t>0.7520037507491878</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.7354311039906783</t>
+          <t>0.7227207191872703</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.19517945581166918</t>
+          <t>0.18079779374395943</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.20130909890298776</t>
+          <t>0.17844589956920015</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.34521619402291237</t>
+          <t>0.34622246314998567</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.27289490868277466</t>
+          <t>0.26755058130454895</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.36913195340804145</t>
+          <t>0.335195986873958</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.4040162267607265</t>
+          <t>0.3928019401527303</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.5318988755799826</t>
+          <t>0.5170486178993461</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.4312218745687009</t>
+          <t>0.3834972229479455</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.2904140176994158</t>
+          <t>0.26023744058981163</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3836,12 +3836,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.33972633296966936</t>
+          <t>0.2947804346904377</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.3817097925440171</t>
+          <t>0.3720564274759055</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.389703402970591</t>
+          <t>0.36358640959498323</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.5787468163229909</t>
+          <t>0.5623516982812494</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.4724068172829035</t>
+          <t>0.43157693494528027</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.6618546395876599</t>
+          <t>0.6038947235117993</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.6129256046266647</t>
+          <t>0.6008282682050039</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.5068457756669821</t>
+          <t>0.4846463665102118</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.4931224752232469</t>
+          <t>0.49394299949378273</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.6743181882934718</t>
+          <t>0.65716304042706</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.5062568738685533</t>
+          <t>0.4901454429001534</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4441,12 +4441,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.6885092539388409</t>
+          <t>0.682510853512288</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.5872909846026071</t>
+          <t>0.5443818030390576</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.7527553459462386</t>
+          <t>0.7522410628234768</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.6544002608083562</t>
+          <t>0.6407163499281836</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.6921180027499194</t>
+          <t>0.6671372749268991</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.521128177377324</t>
+          <t>0.5041341799032434</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4881,12 +4881,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.6996888020108348</t>
+          <t>0.6695666639551245</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4991,12 +4991,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.7201931761602768</t>
+          <t>0.7060212661550335</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.4470915039478734</t>
+          <t>0.449591277081135</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.6113323759872135</t>
+          <t>0.576599790005067</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5211,12 +5211,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.5526312112075282</t>
+          <t>0.5391059000425812</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.6584954436333823</t>
+          <t>0.6281043189223188</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5321,12 +5321,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.5920993377530311</t>
+          <t>0.5808493144688601</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5376,12 +5376,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.7254943098826666</t>
+          <t>0.7235063220141218</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5431,12 +5431,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.6261723841256527</t>
+          <t>0.6167021332976654</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.8361078776416394</t>
+          <t>0.8280478710866374</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.4655195474846144</t>
+          <t>0.45794086274675355</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5596,12 +5596,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>111</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.6123071673809405</t>
+          <t>0.6073960479660043</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.6058775637678999</t>
+          <t>0.5925367939353356</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.6892017918928229</t>
+          <t>0.6731421249870312</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.6374641905866412</t>
+          <t>0.6287682284515043</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5816,12 +5816,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.788189945270571</t>
+          <t>0.759992283265313</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.7552534593819042</t>
+          <t>0.7301654808513934</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5926,12 +5926,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.8661362952797409</t>
+          <t>0.8532855072079082</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.16761238631932968</t>
+          <t>0.14679117389544913</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.29125217837045314</t>
+          <t>0.23871551623604376</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.24576283408567898</t>
+          <t>0.2048166800660211</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.44368536383860113</t>
+          <t>0.39392039578266563</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.2818027405728308</t>
+          <t>0.275301997128319</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.5319986482283259</t>
+          <t>0.5075961954689715</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.35486190265197853</t>
+          <t>0.33204991669423684</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.6323123653816041</t>
+          <t>0.6078960789112071</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.286147776656671</t>
+          <t>0.2316807210005773</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6476,12 +6476,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.40925026560414574</t>
+          <t>0.3759407066750546</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.3895772869354368</t>
+          <t>0.36396054503363495</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6586,12 +6586,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.5953443214172048</t>
+          <t>0.5669302775751478</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6641,12 +6641,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.45811710478238377</t>
+          <t>0.43799382964928696</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.668395613792282</t>
+          <t>0.642557750095414</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.5283084483588613</t>
+          <t>0.4838429683340796</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6806,12 +6806,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.7485210002526109</t>
+          <t>0.7272316292396497</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.4265682584166825</t>
+          <t>0.3980320279813203</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6916,12 +6916,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.571223861435501</t>
+          <t>0.5359785622912534</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6971,12 +6971,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.49126884919682373</t>
+          <t>0.4739524323301819</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
           <t>88</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>98</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.5785901911701108</t>
+          <t>0.5868381111461479</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.5179388607091767</t>
+          <t>0.5100117466262413</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7136,12 +7136,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>0.711600394659744</t>
+          <t>0.7013954278708078</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0.5831155908758914</t>
+          <t>0.5670082235603477</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7246,12 +7246,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0.785207390895963</t>
+          <t>0.763645834551076</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7301,12 +7301,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0.48942723628423446</t>
+          <t>0.4704878042150138</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7356,12 +7356,12 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
           <t>81</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>100</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.6436912308629573</t>
+          <t>0.6269974907078623</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7411,12 +7411,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0.5855277441879612</t>
+          <t>0.5745730459265666</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7466,12 +7466,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0.6606039481243506</t>
+          <t>0.642015192774349</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7521,12 +7521,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.6795177541342805</t>
+          <t>0.6338611289700302</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0.8200536581383188</t>
+          <t>0.796167195425065</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.6777314356786317</t>
+          <t>0.6574630297276811</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7686,12 +7686,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0.260443334108519</t>
+          <t>0.2494175566907034</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0.3397030621664332</t>
+          <t>0.318860416910063</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7851,12 +7851,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0.38381797724983474</t>
+          <t>0.35832326708889184</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7906,12 +7906,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.3735525142339036</t>
+          <t>0.34318048555968156</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7961,12 +7961,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0.530879278631206</t>
+          <t>0.5268790676679761</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8016,12 +8016,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>128</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0.549637720501984</t>
+          <t>0.5391944903866228</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8071,12 +8071,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.5840548400428033</t>
+          <t>0.5748889356237342</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8126,12 +8126,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>0.6057819173506329</t>
+          <t>0.6004708361751601</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8181,12 +8181,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.2804721459596882</t>
+          <t>0.27218845738424896</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.44076873181627063</t>
+          <t>0.43280851766286166</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8291,12 +8291,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.42985644360520764</t>
+          <t>0.4213572731744368</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8346,12 +8346,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>161</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0.42034604367268147</t>
+          <t>0.4056234429379204</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0.5823484113061511</t>
+          <t>0.5728297828278345</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0.6669595183086363</t>
+          <t>0.6282775343784659</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -8511,12 +8511,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0.63944688306512</t>
+          <t>0.6066070194683484</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8566,12 +8566,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>134</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0.7288007048338234</t>
+          <t>0.7172707151469284</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.1499839663913717</t>
+          <t>0.1351032170512686</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0.16496250709718654</t>
+          <t>0.1415013929154469</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -8731,12 +8731,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0.13450638295802303</t>
+          <t>0.11032883438706322</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8786,12 +8786,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0.2082789650701436</t>
+          <t>0.17767608290208656</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0.2288456269696398</t>
+          <t>0.20165794809898097</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8896,12 +8896,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0.27113531044816275</t>
+          <t>0.24699063437111954</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8951,12 +8951,12 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0.2744093650982364</t>
+          <t>0.2475195057943456</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0.4130496530554153</t>
+          <t>0.3757166077142094</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9061,12 +9061,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0.18025233930726026</t>
+          <t>0.1613276698081191</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>0.24498080379482423</t>
+          <t>0.22366561105106006</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9171,12 +9171,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>0.23744777854893548</t>
+          <t>0.2207682994135515</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0.3259455938666797</t>
+          <t>0.297887327412486</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -9281,12 +9281,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0.5108301565084472</t>
+          <t>0.48242908630119485</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9336,12 +9336,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.4250252923081766</t>
+          <t>0.376888367296666</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0.5024443097030824</t>
+          <t>0.48096609893287756</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9446,12 +9446,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0.6184430446657189</t>
+          <t>0.5890848406250486</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9501,12 +9501,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0.31961316364084336</t>
+          <t>0.3064713147232552</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9556,12 +9556,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0.4433089156374283</t>
+          <t>0.4031290111410035</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9611,12 +9611,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.4061967176398937</t>
+          <t>0.38751673451328594</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -9666,12 +9666,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0.45643866412109263</t>
+          <t>0.4262518262264182</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9721,12 +9721,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0.43400789539202367</t>
+          <t>0.4263154689190938</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9776,12 +9776,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>0.5027366270547992</t>
+          <t>0.48772652346889545</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9831,12 +9831,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.5345155135914582</t>
+          <t>0.5097058222088791</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>120</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0.6011855960768635</t>
+          <t>0.5790636568260544</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9941,12 +9941,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -9986,7 +9986,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>0.39124444760891713</t>
+          <t>0.3953776414387401</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9996,12 +9996,12 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0.38314607780192345</t>
+          <t>0.3657854856610426</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.5143840023511319</t>
+          <t>0.4993183780264305</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10106,12 +10106,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.5393279015510396</t>
+          <t>0.5127468883954316</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10161,12 +10161,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.6017558088480217</t>
+          <t>0.5927179519660097</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>0.5974870939968638</t>
+          <t>0.5914059876307641</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -10271,12 +10271,12 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.6734802658173924</t>
+          <t>0.6711423315867263</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -10326,12 +10326,12 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>0.6964826311558928</t>
+          <t>0.6907888777009453</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -10381,12 +10381,12 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>26</t>
         </is>
       </c>
     </row>

--- a/doors_detection_long_term/scripts/results/detr_ap_real_data_0.5.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_ap_real_data_0.5.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.2817240467704375</t>
+          <t>0.300949978984485</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.2552776699655499</t>
+          <t>0.2687911834790634</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.21487021043472654</t>
+          <t>0.23234063380498013</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.27255054525163613</t>
+          <t>0.2841889684585846</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.14724074724074726</t>
+          <t>0.15787221651883307</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.17401254088872722</t>
+          <t>0.17812191341915237</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.2879189414630113</t>
+          <t>0.3005411119192831</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.3210170354896801</t>
+          <t>0.34160459165914875</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.38411567236532496</t>
+          <t>0.39486836053736796</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.11526656695321792</t>
+          <t>0.12178293478008617</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.38892492138104223</t>
+          <t>0.4127983931724056</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.41528805584801376</t>
+          <t>0.4317210794806519</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.05215472044339587</t>
+          <t>0.054851046698872793</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.16126150172927814</t>
+          <t>0.17501080846350164</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.033169887574921904</t>
+          <t>0.0375137723535893</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.22649489446924817</t>
+          <t>0.23452509916478032</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.13930550874433584</t>
+          <t>0.14705579082174006</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.41134093077607603</t>
+          <t>0.43003005949415973</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.12932100297553817</t>
+          <t>0.1347770984572091</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.333658519007765</t>
+          <t>0.3537320276308919</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.18254900222530343</t>
+          <t>0.19672395639343324</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.03223564884870032</t>
+          <t>0.03690518907858537</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1966,12 +1966,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.2061132457293852</t>
+          <t>0.2169757202433048</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.044002384092038375</t>
+          <t>0.04764821742537171</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.17975695622600008</t>
+          <t>0.1821163526594706</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.028169324367860023</t>
+          <t>0.031113164947570167</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.13992354377714536</t>
+          <t>0.1445780533591912</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.05434048012173013</t>
+          <t>0.056378523599990994</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.2153850191384225</t>
+          <t>0.2176203906045632</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.10345630825273519</t>
+          <t>0.10711737063090282</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2406,12 +2406,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.18751065134253903</t>
+          <t>0.1946645323982855</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.5480546114900483</t>
+          <t>0.5589526062590108</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.45871226462591197</t>
+          <t>0.4692389118498069</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.5587918738862501</t>
+          <t>0.5737987362792852</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.4754326316835843</t>
+          <t>0.48044634104511974</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.5532493141934703</t>
+          <t>0.5716469565367746</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.561116269042857</t>
+          <t>0.5718877548143427</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.6899566212100581</t>
+          <t>0.7164710388535078</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.5948639898424127</t>
+          <t>0.6134458265369593</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.501351895481964</t>
+          <t>0.5135816012600569</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2956,12 +2956,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.48282206943586725</t>
+          <t>0.4872946270999143</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.565402794329556</t>
+          <t>0.5708267166818255</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.5358540779134925</t>
+          <t>0.5458076412329094</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.7268758087848998</t>
+          <t>0.7398610466197822</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.6455979540283301</t>
+          <t>0.657515383268594</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.7520037507491878</t>
+          <t>0.7953800703913295</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.7227207191872703</t>
+          <t>0.7354311039906783</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.18079779374395943</t>
+          <t>0.19517945581166918</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.17844589956920015</t>
+          <t>0.20130909890298776</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.34622246314998567</t>
+          <t>0.3594935060451181</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.26755058130454895</t>
+          <t>0.27289490868277466</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.335195986873958</t>
+          <t>0.36913195340804145</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.3928019401527303</t>
+          <t>0.4040162267607265</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.5170486178993461</t>
+          <t>0.5226859495623589</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.3834972229479455</t>
+          <t>0.4312218745687009</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.26023744058981163</t>
+          <t>0.2904140176994158</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3836,12 +3836,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.2947804346904377</t>
+          <t>0.33972633296966936</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.3720564274759055</t>
+          <t>0.3817097925440171</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.36358640959498323</t>
+          <t>0.389703402970591</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.5623516982812494</t>
+          <t>0.5890879501491236</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.43157693494528027</t>
+          <t>0.4580351254617547</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.6038947235117993</t>
+          <t>0.6386531672795646</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.6008282682050039</t>
+          <t>0.6192216615983973</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.4846463665102118</t>
+          <t>0.5068457756669821</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.49394299949378273</t>
+          <t>0.49936508824920484</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.65716304042706</t>
+          <t>0.6743181882934718</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.4901454429001534</t>
+          <t>0.5068895164366798</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4441,12 +4441,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.682510853512288</t>
+          <t>0.6885092539388409</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.5443818030390576</t>
+          <t>0.5872909846026071</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.6407163499281836</t>
+          <t>0.6475803567921905</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.6671372749268991</t>
+          <t>0.6842929692870401</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.5041341799032434</t>
+          <t>0.5098428588792491</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4881,12 +4881,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.6695666639551245</t>
+          <t>0.6885525920319616</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4991,12 +4991,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.7060212661550335</t>
+          <t>0.7201931761602768</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.449591277081135</t>
+          <t>0.46102267230599003</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.576599790005067</t>
+          <t>0.6059530688691719</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5211,12 +5211,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.5391059000425812</t>
+          <t>0.5495751880210412</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.6281043189223188</t>
+          <t>0.6522101157314584</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5321,12 +5321,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.5808493144688601</t>
+          <t>0.5927109585481384</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5376,12 +5376,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.7235063220141218</t>
+          <t>0.745753423576091</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5431,12 +5431,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.6167021332976654</t>
+          <t>0.6210756861662016</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.8280478710866374</t>
+          <t>0.8339677963086346</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.45794086274675355</t>
+          <t>0.467090720807414</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5596,12 +5596,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.6073960479660043</t>
+          <t>0.6123071673809405</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.5925367939353356</t>
+          <t>0.6043148800036684</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.6731421249870312</t>
+          <t>0.6892017918928229</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.6287682284515043</t>
+          <t>0.6374641905866412</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5816,12 +5816,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.759992283265313</t>
+          <t>0.7791596799198828</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.7301654808513934</t>
+          <t>0.7393522763425368</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5926,12 +5926,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.8532855072079082</t>
+          <t>0.8661362952797409</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.14679117389544913</t>
+          <t>0.16460112383897543</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.23871551623604376</t>
+          <t>0.29125217837045314</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.2048166800660211</t>
+          <t>0.25039078478712684</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.39392039578266563</t>
+          <t>0.4266038608311962</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.275301997128319</t>
+          <t>0.2946695711557834</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.5075961954689715</t>
+          <t>0.5319986482283259</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.33204991669423684</t>
+          <t>0.35670362060596533</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.6078960789112071</t>
+          <t>0.6323123653816041</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.2316807210005773</t>
+          <t>0.272154905116309</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6476,12 +6476,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.3759407066750546</t>
+          <t>0.4090427886027756</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
           <t>56</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>38</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.36396054503363495</t>
+          <t>0.3828089821377181</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6586,12 +6586,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>111</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.5669302775751478</t>
+          <t>0.5929072974627052</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6641,12 +6641,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.43799382964928696</t>
+          <t>0.4621469429249584</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.642557750095414</t>
+          <t>0.65898994283679</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.4838429683340796</t>
+          <t>0.5026530779096878</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6806,12 +6806,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.7272316292396497</t>
+          <t>0.7485210002526109</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.3980320279813203</t>
+          <t>0.4265682584166825</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6916,12 +6916,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.5359785622912534</t>
+          <t>0.5731760792080758</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6971,12 +6971,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.4739524323301819</t>
+          <t>0.49126884919682373</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.5868381111461479</t>
+          <t>0.5962052611031161</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7081,12 +7081,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.5100117466262413</t>
+          <t>0.5206333975082705</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7136,12 +7136,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>0.7013954278708078</t>
+          <t>0.711600394659744</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0.5670082235603477</t>
+          <t>0.5950072205464255</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7246,12 +7246,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0.763645834551076</t>
+          <t>0.7936305071253721</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7301,12 +7301,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0.4704878042150138</t>
+          <t>0.48096449358117405</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7356,12 +7356,12 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.6269974907078623</t>
+          <t>0.637997278663757</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7411,12 +7411,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0.5745730459265666</t>
+          <t>0.5906392985145582</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7466,12 +7466,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0.642015192774349</t>
+          <t>0.6606039481243506</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7521,12 +7521,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.6338611289700302</t>
+          <t>0.6759674867452157</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0.796167195425065</t>
+          <t>0.8200536581383188</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.6574630297276811</t>
+          <t>0.6659437167759995</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7686,12 +7686,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0.2494175566907034</t>
+          <t>0.26470235144589443</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>128</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0.318860416910063</t>
+          <t>0.334841720450052</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7851,12 +7851,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0.35832326708889184</t>
+          <t>0.3759422308313886</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7906,12 +7906,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>147</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.34318048555968156</t>
+          <t>0.3670668495162662</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7961,12 +7961,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0.5268790676679761</t>
+          <t>0.5402195557159348</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8016,12 +8016,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0.5391944903866228</t>
+          <t>0.549637720501984</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8071,12 +8071,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.5748889356237342</t>
+          <t>0.5840548400428033</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8126,12 +8126,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.27218845738424896</t>
+          <t>0.28219118039875857</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.43280851766286166</t>
+          <t>0.44076873181627063</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8291,12 +8291,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.4213572731744368</t>
+          <t>0.42743748306341467</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8346,12 +8346,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>185</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0.4056234429379204</t>
+          <t>0.41871807209393064</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0.5728297828278345</t>
+          <t>0.5759595611152962</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -8456,12 +8456,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0.6282775343784659</t>
+          <t>0.6511605775436287</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -8511,12 +8511,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0.6066070194683484</t>
+          <t>0.6278775106556708</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8566,12 +8566,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0.7172707151469284</t>
+          <t>0.7398905261995433</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.1351032170512686</t>
+          <t>0.153179022392643</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0.1415013929154469</t>
+          <t>0.15884496049375627</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -8731,12 +8731,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0.11032883438706322</t>
+          <t>0.13218259641207067</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8786,12 +8786,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0.17767608290208656</t>
+          <t>0.2082789650701436</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0.20165794809898097</t>
+          <t>0.2288456269696398</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8896,12 +8896,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0.24699063437111954</t>
+          <t>0.27113531044816275</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8951,12 +8951,12 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0.2475195057943456</t>
+          <t>0.2810212928111972</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0.3757166077142094</t>
+          <t>0.402135626551875</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9061,12 +9061,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0.1613276698081191</t>
+          <t>0.1828962972590995</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>0.22366561105106006</t>
+          <t>0.24498080379482423</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9171,12 +9171,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>0.2207682994135515</t>
+          <t>0.23506195714470918</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0.297887327412486</t>
+          <t>0.3131833712511736</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -9281,12 +9281,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0.48242908630119485</t>
+          <t>0.5074665920010583</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9336,12 +9336,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.376888367296666</t>
+          <t>0.40035566994997335</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0.48096609893287756</t>
+          <t>0.4972929974062925</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9446,12 +9446,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0.5890848406250486</t>
+          <t>0.5987035233471797</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9501,12 +9501,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0.3064713147232552</t>
+          <t>0.31587330158211735</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9556,12 +9556,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0.4031290111410035</t>
+          <t>0.43889660792300655</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9611,12 +9611,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.38751673451328594</t>
+          <t>0.4000557570813144</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -9666,12 +9666,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0.4262518262264182</t>
+          <t>0.45121627488377575</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9721,12 +9721,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>76</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0.4263154689190938</t>
+          <t>0.43400789539202367</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9776,12 +9776,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>0.48772652346889545</t>
+          <t>0.5027366270547992</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9831,12 +9831,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.5097058222088791</t>
+          <t>0.5314730847360671</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>127</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0.5790636568260544</t>
+          <t>0.6033182614764747</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9941,12 +9941,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0.3657854856610426</t>
+          <t>0.38314607780192345</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.4993183780264305</t>
+          <t>0.5143840023511319</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10106,12 +10106,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>126</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.5127468883954316</t>
+          <t>0.5393279015510396</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10161,12 +10161,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.5927179519660097</t>
+          <t>0.6050101058370494</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.6711423315867263</t>
+          <t>0.677472804059116</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -10326,12 +10326,12 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>0.6907888777009453</t>
+          <t>0.6964826311558928</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -10381,12 +10381,12 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
     </row>

--- a/doors_detection_long_term/scripts/results/detr_ap_real_data_0.5.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_ap_real_data_0.5.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.300949978984485</t>
+          <t>0.2934590097912961</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.2841889684585846</t>
+          <t>0.28447397961316095</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.3005411119192831</t>
+          <t>0.2997138267732587</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.34160459165914875</t>
+          <t>0.3419016470173832</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.39486836053736796</t>
+          <t>0.39501165732331633</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.12178293478008617</t>
+          <t>0.12185096199097052</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.4127983931724056</t>
+          <t>0.4129441968158328</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.4317210794806519</t>
+          <t>0.43187139602151453</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.17501080846350164</t>
+          <t>0.17486623293724674</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.23452509916478032</t>
+          <t>0.2345368884895468</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.14705579082174006</t>
+          <t>0.14710315276168515</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.43003005949415973</t>
+          <t>0.4298783549214438</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.1347770984572091</t>
+          <t>0.1346992958183582</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.19672395639343324</t>
+          <t>0.19681706051873535</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.2169757202433048</t>
+          <t>0.2169955796749289</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.1821163526594706</t>
+          <t>0.18210041525799617</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.1445780533591912</t>
+          <t>0.14496494171068117</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.2176203906045632</t>
+          <t>0.21878819105807792</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.10711737063090282</t>
+          <t>0.10713661755139554</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.1946645323982855</t>
+          <t>0.1944979637131983</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.5589526062590108</t>
+          <t>0.5593418015473679</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.4692389118498069</t>
+          <t>0.4692064118173068</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.5737987362792852</t>
+          <t>0.5737943553234965</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.48044634104511974</t>
+          <t>0.4807901582804016</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.5716469565367746</t>
+          <t>0.571874466192084</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.5718877548143427</t>
+          <t>0.5719528852432791</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.6134458265369593</t>
+          <t>0.6130356005774775</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.5135816012600569</t>
+          <t>0.513430568969556</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.4872946270999143</t>
+          <t>0.48754038323675514</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.5708267166818255</t>
+          <t>0.5707806337325166</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.5458076412329094</t>
+          <t>0.5457557374002441</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.7398610466197822</t>
+          <t>0.7400280831175015</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.7953800703913295</t>
+          <t>0.7808496006439031</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.7354311039906783</t>
+          <t>0.7358492684763195</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.3594935060451181</t>
+          <t>0.35944427212491636</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.36913195340804145</t>
+          <t>0.37557465769433185</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.4040162267607265</t>
+          <t>0.404292529456384</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.2904140176994158</t>
+          <t>0.29043194052335863</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.3817097925440171</t>
+          <t>0.38171755487896836</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.389703402970591</t>
+          <t>0.389768291584163</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.5890879501491236</t>
+          <t>0.5889959508365101</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.4580351254617547</t>
+          <t>0.4583892553597474</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.6386531672795646</t>
+          <t>0.6388551926773367</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.6192216615983973</t>
+          <t>0.6128705302472659</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.5068457756669821</t>
+          <t>0.5067292463561414</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.49936508824920484</t>
+          <t>0.5000187348563607</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.6743181882934718</t>
+          <t>0.674355639380834</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.7522410628234768</t>
+          <t>0.7521423303382692</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.5401058942503721</t>
+          <t>0.5402524792891346</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.5098428588792491</t>
+          <t>0.509694252367764</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.6975810750630339</t>
+          <t>0.6973986613072588</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.6885525920319616</t>
+          <t>0.6884211241585583</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.7201931761602768</t>
+          <t>0.7201522306587392</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.46102267230599003</t>
+          <t>0.4609488498724106</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.6059530688691719</t>
+          <t>0.6062011526545075</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.5495751880210412</t>
+          <t>0.549743528521018</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.6522101157314584</t>
+          <t>0.6520611516714987</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.5927109585481384</t>
+          <t>0.5925810386860138</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.745753423576091</t>
+          <t>0.7458470480531794</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.6210756861662016</t>
+          <t>0.6207478685738893</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.467090720807414</t>
+          <t>0.46709120494926404</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.6123071673809405</t>
+          <t>0.6124033108764401</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.6043148800036684</t>
+          <t>0.6043453442236132</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.6892017918928229</t>
+          <t>0.6890316691343147</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.6374641905866412</t>
+          <t>0.6375262876472902</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.7393522763425368</t>
+          <t>0.7393986471475633</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.29125217837045314</t>
+          <t>0.2909382429420139</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.25039078478712684</t>
+          <t>0.2501482922402827</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.4266038608311962</t>
+          <t>0.42664363636460273</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.5319986482283259</t>
+          <t>0.5319483168802847</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.35670362060596533</t>
+          <t>0.35660881051286897</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.6323123653816041</t>
+          <t>0.6322670260944483</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.272154905116309</t>
+          <t>0.2723395887587449</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.4090427886027756</t>
+          <t>0.40901457131988367</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.5929072974627052</t>
+          <t>0.5928386809432782</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.4621469429249584</t>
+          <t>0.46191261346841783</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.5026530779096878</t>
+          <t>0.5027765406461764</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.7485210002526109</t>
+          <t>0.7484709388283595</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.4265682584166825</t>
+          <t>0.4265416747741904</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.5731760792080758</t>
+          <t>0.5731113414234574</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.49126884919682373</t>
+          <t>0.49106935996699747</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.5962052611031161</t>
+          <t>0.5962488542883079</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.5206333975082705</t>
+          <t>0.5209906825503047</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0.5950072205464255</t>
+          <t>0.5950567812744618</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0.7936305071253721</t>
+          <t>0.7935358233357718</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0.48096449358117405</t>
+          <t>0.4809286006855745</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.637997278663757</t>
+          <t>0.638157903098138</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0.5906392985145582</t>
+          <t>0.5907147635650523</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0.6606039481243506</t>
+          <t>0.6606076719056456</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.6759674867452157</t>
+          <t>0.6759998999487342</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.6659437167759995</t>
+          <t>0.6701065289869154</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>0.8626497021650358</t>
+          <t>0.862977841330203</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0.26470235144589443</t>
+          <t>0.26503711573447625</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0.334841720450052</t>
+          <t>0.33502579563412715</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0.3759422308313886</t>
+          <t>0.37593770966903695</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.3670668495162662</t>
+          <t>0.36672166287934754</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0.5402195557159348</t>
+          <t>0.5401137165530354</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0.549637720501984</t>
+          <t>0.5491095138426682</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.5840548400428033</t>
+          <t>0.5840751830232567</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>0.6004708361751601</t>
+          <t>0.6003558041868072</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.28219118039875857</t>
+          <t>0.2820421740034551</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.44076873181627063</t>
+          <t>0.44070732878187846</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.42743748306341467</t>
+          <t>0.4276921994563357</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0.5759595611152962</t>
+          <t>0.57597196892341</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0.6278775106556708</t>
+          <t>0.6279992947901518</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0.7398905261995433</t>
+          <t>0.7399490004618564</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8666,7 +8666,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.153179022392643</t>
+          <t>0.15332223850043528</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0.13218259641207067</t>
+          <t>0.13098625835385283</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0.2082789650701436</t>
+          <t>0.20837832437394324</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8886,7 +8886,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0.2288456269696398</t>
+          <t>0.22822573224179943</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0.27113531044816275</t>
+          <t>0.27123640088410855</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0.2810212928111972</t>
+          <t>0.2811488148137192</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0.402135626551875</t>
+          <t>0.4022528740142552</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9106,7 +9106,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0.1828962972590995</t>
+          <t>0.18267330813304633</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>0.23506195714470918</t>
+          <t>0.23490882993566092</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0.3131833712511736</t>
+          <t>0.3166576419820815</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -9326,7 +9326,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0.5074665920010583</t>
+          <t>0.5074669236758137</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.40035566994997335</t>
+          <t>0.40046586228854286</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0.4972929974062925</t>
+          <t>0.49719106226475973</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0.5987035233471797</t>
+          <t>0.5987740700843931</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0.31587330158211735</t>
+          <t>0.315880374354737</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0.43889660792300655</t>
+          <t>0.4389425392545724</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.4000557570813144</t>
+          <t>0.3997097726643021</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0.45121627488377575</t>
+          <t>0.45144512477141463</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0.43400789539202367</t>
+          <t>0.43429270704727935</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.5314730847360671</t>
+          <t>0.5313404868269905</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0.6033182614764747</t>
+          <t>0.6037087055597147</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>0.3953776414387401</t>
+          <t>0.3954350878074311</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0.38314607780192345</t>
+          <t>0.38320219452470683</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10096,7 +10096,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.5143840023511319</t>
+          <t>0.5145256177449173</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.5393279015510396</t>
+          <t>0.5393708473356887</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10206,7 +10206,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.6050101058370494</t>
+          <t>0.6051157558050809</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.677472804059116</t>
+          <t>0.6775650216778356</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>0.6964826311558928</t>
+          <t>0.6963073065168748</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
